--- a/mapping/input_list_BAO.xlsx
+++ b/mapping/input_list_BAO.xlsx
@@ -31,67 +31,67 @@
     <t>no IRI</t>
   </si>
   <si>
-    <t>{'Atomic force microscopy'}</t>
-  </si>
-  <si>
-    <t>{'Mass spectrometry'}</t>
-  </si>
-  <si>
-    <t>{'Scanning electron microscopy'}</t>
-  </si>
-  <si>
-    <t>{'Transmission electron microscopy'}</t>
-  </si>
-  <si>
-    <t>{'Light source'}</t>
-  </si>
-  <si>
-    <t>{'Substrate'}</t>
-  </si>
-  <si>
-    <t>{'Wavelength'}</t>
+    <t>{'substrate'}</t>
+  </si>
+  <si>
+    <t>{'atomic force microscopy'}</t>
+  </si>
+  <si>
+    <t>{'scanning electron microscopy'}</t>
+  </si>
+  <si>
+    <t>{'transmission electron microscopy'}</t>
+  </si>
+  <si>
+    <t>{'mass spectrometry'}</t>
+  </si>
+  <si>
+    <t>{'light source'}</t>
+  </si>
+  <si>
+    <t>{'xenon lamp'}</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0003063</t>
   </si>
   <si>
     <t>http://www.bioassayontology.org/bao#BAO_0002523</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000454</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000455</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0000055</t>
   </si>
   <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0000454</t>
-  </si>
-  <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0000455</t>
-  </si>
-  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0150029</t>
   </si>
   <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0003063</t>
-  </si>
-  <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0000565</t>
-  </si>
-  <si>
-    <t>{'label': 'Atomic force microscopy'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Mass spectrometry'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Scanning electron microscopy'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Transmission electron microscopy'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Light source'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Substrate'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Wavelength'}</t>
+    <t>http://www.bioassayontology.org/bao#BAO_0150032</t>
+  </si>
+  <si>
+    <t>{'label': 'substrate'}</t>
+  </si>
+  <si>
+    <t>{'label': 'atomic force microscopy'}</t>
+  </si>
+  <si>
+    <t>{'label': 'scanning electron microscopy'}</t>
+  </si>
+  <si>
+    <t>{'label': 'transmission electron microscopy'}</t>
+  </si>
+  <si>
+    <t>{'label': 'mass spectrometry'}</t>
+  </si>
+  <si>
+    <t>{'label': 'light source'}</t>
+  </si>
+  <si>
+    <t>{'label': 'xenon lamp'}</t>
   </si>
 </sst>
 </file>
@@ -603,13 +603,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="BAO_0002523"/>
-    <hyperlink ref="D3" r:id="rId2" location="BAO_0000055"/>
+    <hyperlink ref="D2" r:id="rId1" location="BAO_0003063"/>
+    <hyperlink ref="D3" r:id="rId2" location="BAO_0002523"/>
     <hyperlink ref="D4" r:id="rId3" location="BAO_0000454"/>
     <hyperlink ref="D5" r:id="rId4" location="BAO_0000455"/>
-    <hyperlink ref="D6" r:id="rId5" location="BAO_0150029"/>
-    <hyperlink ref="D7" r:id="rId6" location="BAO_0003063"/>
-    <hyperlink ref="D8" r:id="rId7" location="BAO_0000565"/>
+    <hyperlink ref="D6" r:id="rId5" location="BAO_0000055"/>
+    <hyperlink ref="D7" r:id="rId6" location="BAO_0150029"/>
+    <hyperlink ref="D8" r:id="rId7" location="BAO_0150032"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mapping/input_list_BAO.xlsx
+++ b/mapping/input_list_BAO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>input_list_IRI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>BAO_DESC</t>
   </si>
   <si>
+    <t>BAO_DEF</t>
+  </si>
+  <si>
     <t>no IRI</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>{'label': 'xenon lamp'}</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -462,13 +468,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,124 +487,148 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
